--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Desktop\Projekte\irsel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B816917-A4DE-4C85-92CB-4C68AEC2D4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD6712-F6E3-481A-B689-7461049FC502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{8E931BA2-57EF-40BF-B250-A90852F58644}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="77">
   <si>
     <t>big</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>13.16%</t>
+  </si>
+  <si>
+    <t>SET020+1</t>
+  </si>
+  <si>
+    <t>SET084+1</t>
+  </si>
+  <si>
+    <t>SET093+1</t>
+  </si>
+  <si>
+    <t>SET095+1</t>
   </si>
 </sst>
 </file>
@@ -251,7 +263,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -310,8 +322,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -365,7 +377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$4</c:f>
+              <c:f>Tabelle1!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -447,11 +459,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>Tabelle1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -465,11 +477,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$4:$L$4</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$4:$P$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$4</c:f>
+              <c:f>Tabelle1!$N$4</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -490,7 +502,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$6</c:f>
+              <c:f>Tabelle1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -572,11 +584,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>Tabelle1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -590,11 +602,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$6:$L$6</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$6:$P$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$6</c:f>
+              <c:f>Tabelle1!$N$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -615,7 +627,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$5</c:f>
+              <c:f>Tabelle1!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,11 +709,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>Tabelle1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -715,11 +727,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$5:$L$5</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$5:$P$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$5</c:f>
+              <c:f>Tabelle1!$N$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -740,7 +752,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$7</c:f>
+              <c:f>Tabelle1!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -822,11 +834,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>Tabelle1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,11 +852,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$7:$L$7</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$7:$P$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$7</c:f>
+              <c:f>Tabelle1!$N$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -865,7 +877,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$8</c:f>
+              <c:f>Tabelle1!$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -947,11 +959,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>Tabelle1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -965,11 +977,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$8:$L$8</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$8:$P$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$J$8</c:f>
+              <c:f>Tabelle1!$N$8</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1218,7 +1230,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$7</c:f>
+              <c:f>Tabelle1!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,11 +1312,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$3</c:f>
+              <c:f>Tabelle1!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1318,11 +1330,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$7:$L$7</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$7:$P$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$7</c:f>
+              <c:f>Tabelle1!$O$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1343,7 +1355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$5</c:f>
+              <c:f>Tabelle1!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1425,11 +1437,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$3</c:f>
+              <c:f>Tabelle1!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1443,11 +1455,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$5:$L$5</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$5:$P$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$5</c:f>
+              <c:f>Tabelle1!$O$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1468,7 +1480,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$6</c:f>
+              <c:f>Tabelle1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1550,11 +1562,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$3</c:f>
+              <c:f>Tabelle1!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1568,11 +1580,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$6:$L$6</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$6:$P$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$6</c:f>
+              <c:f>Tabelle1!$O$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1593,7 +1605,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$8</c:f>
+              <c:f>Tabelle1!$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1675,11 +1687,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$3</c:f>
+              <c:f>Tabelle1!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1693,11 +1705,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$8:$L$8</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$8:$P$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$8</c:f>
+              <c:f>Tabelle1!$O$8</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1718,7 +1730,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$4</c:f>
+              <c:f>Tabelle1!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1800,11 +1812,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$3</c:f>
+              <c:f>Tabelle1!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1818,11 +1830,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$4:$L$4</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$4:$P$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$K$4</c:f>
+              <c:f>Tabelle1!$O$4</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2071,7 +2083,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$5</c:f>
+              <c:f>Tabelle1!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2153,11 +2165,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$3</c:f>
+              <c:f>Tabelle1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2171,11 +2183,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$5:$L$5</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$5:$P$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$5</c:f>
+              <c:f>Tabelle1!$P$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2196,7 +2208,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$7</c:f>
+              <c:f>Tabelle1!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2278,11 +2290,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$3</c:f>
+              <c:f>Tabelle1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2296,11 +2308,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$7:$L$7</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$7:$P$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$7</c:f>
+              <c:f>Tabelle1!$P$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2321,7 +2333,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$6</c:f>
+              <c:f>Tabelle1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,11 +2415,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$3</c:f>
+              <c:f>Tabelle1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2421,11 +2433,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$6:$L$6</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$6:$P$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$6</c:f>
+              <c:f>Tabelle1!$P$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2446,7 +2458,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$8</c:f>
+              <c:f>Tabelle1!$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2528,11 +2540,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$3</c:f>
+              <c:f>Tabelle1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2546,11 +2558,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$8:$L$8</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$8:$P$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$8</c:f>
+              <c:f>Tabelle1!$P$8</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2571,7 +2583,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$4</c:f>
+              <c:f>Tabelle1!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2653,11 +2665,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$3:$L$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$3</c:f>
+              <c:f>Tabelle1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2671,11 +2683,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$J$4:$L$4</c15:sqref>
+                    <c15:sqref>Tabelle1!$N$4:$P$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$L$4</c:f>
+              <c:f>Tabelle1!$P$4</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4521,13 +4533,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4557,13 +4569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4595,13 +4607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -4931,27 +4943,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05959AFF-5A0D-4D90-9A94-F62A5087BB18}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4970,17 +4982,29 @@
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="J3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -5002,32 +5026,44 @@
       <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="4">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43</v>
+      </c>
+      <c r="J4" s="4">
+        <v>47</v>
+      </c>
+      <c r="K4" s="4">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7">
+      <c r="N4" s="7">
         <v>8.6805555555555555E-6</v>
       </c>
-      <c r="K4" s="7">
+      <c r="O4" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="L4" s="7">
+      <c r="P4" s="7">
         <v>0.18167013888888889</v>
       </c>
-      <c r="M4" s="7">
-        <f>J4/(24*60*60)</f>
+      <c r="Q4" s="7">
+        <f>N4/(24*60*60)</f>
         <v>1.0046939300411523E-10</v>
       </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:O4" si="0">K4/(24*60*60)</f>
+      <c r="R4" s="7">
+        <f t="shared" ref="R4:S4" si="0">O4/(24*60*60)</f>
         <v>8.0375514403292187E-9</v>
       </c>
-      <c r="O4" s="7">
+      <c r="S4" s="7">
         <f t="shared" si="0"/>
         <v>2.1026636445473252E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5049,32 +5085,36 @@
       <c r="G5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="8">
+      <c r="N5" s="8">
         <v>4.1666666666666665E-5</v>
       </c>
-      <c r="K5" s="8">
+      <c r="O5" s="8">
         <v>1.3657407407407409E-4</v>
       </c>
-      <c r="L5" s="8">
+      <c r="P5" s="8">
         <v>3.9803240740740736E-3</v>
       </c>
-      <c r="M5" s="7">
-        <f t="shared" ref="M5:M8" si="1">J5/(24*60*60)</f>
+      <c r="Q5" s="7">
+        <f t="shared" ref="Q5:Q8" si="1">N5/(24*60*60)</f>
         <v>4.8225308641975311E-10</v>
       </c>
-      <c r="N5" s="7">
-        <f t="shared" ref="N5:N8" si="2">K5/(24*60*60)</f>
+      <c r="R5" s="7">
+        <f t="shared" ref="R5:R8" si="2">O5/(24*60*60)</f>
         <v>1.5807184499314131E-9</v>
       </c>
-      <c r="O5" s="7">
-        <f t="shared" ref="O5:O8" si="3">L5/(24*60*60)</f>
+      <c r="S5" s="7">
+        <f t="shared" ref="S5:S8" si="3">P5/(24*60*60)</f>
         <v>4.6068565672153629E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -5096,32 +5136,36 @@
       <c r="G6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="M6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="8">
+      <c r="N6" s="8">
         <v>4.0509259259259258E-5</v>
       </c>
-      <c r="K6" s="8">
+      <c r="O6" s="8">
         <v>4.224537037037037E-4</v>
       </c>
-      <c r="L6" s="8">
+      <c r="P6" s="8">
         <v>5.7431712962962969E-2</v>
       </c>
-      <c r="M6" s="7">
+      <c r="Q6" s="7">
         <f t="shared" si="1"/>
         <v>4.688571673525377E-10</v>
       </c>
-      <c r="N6" s="7">
+      <c r="R6" s="7">
         <f t="shared" si="2"/>
         <v>4.8895104595336078E-9</v>
       </c>
-      <c r="O6" s="7">
+      <c r="S6" s="7">
         <f t="shared" si="3"/>
         <v>6.6471890003429363E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5143,32 +5187,36 @@
       <c r="G7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="8">
+      <c r="N7" s="8">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="K7" s="8">
+      <c r="O7" s="8">
         <v>1.244212962962963E-4</v>
       </c>
-      <c r="L7" s="8">
+      <c r="P7" s="8">
         <v>4.2581018518518515E-3</v>
       </c>
-      <c r="M7" s="7">
+      <c r="Q7" s="7">
         <f t="shared" si="1"/>
         <v>5.3583676268861453E-10</v>
       </c>
-      <c r="N7" s="7">
+      <c r="R7" s="7">
         <f t="shared" si="2"/>
         <v>1.4400612997256516E-9</v>
       </c>
-      <c r="O7" s="7">
+      <c r="S7" s="7">
         <f t="shared" si="3"/>
         <v>4.9283586248285315E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5190,32 +5238,36 @@
       <c r="G8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="M8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="8">
+      <c r="N8" s="8">
         <v>4.8611111111111115E-5</v>
       </c>
-      <c r="K8" s="8">
+      <c r="O8" s="8">
         <v>4.5601851851851852E-4</v>
       </c>
-      <c r="L8" s="8">
+      <c r="P8" s="8">
         <v>5.4395833333333338E-2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="Q8" s="7">
         <f t="shared" si="1"/>
         <v>5.6262860082304535E-10</v>
       </c>
-      <c r="N8" s="7">
+      <c r="R8" s="7">
         <f t="shared" si="2"/>
         <v>5.2779921124828529E-9</v>
       </c>
-      <c r="O8" s="7">
+      <c r="S8" s="7">
         <f t="shared" si="3"/>
         <v>6.2958140432098776E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5237,8 +5289,12 @@
       <c r="G9" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5260,14 +5316,18 @@
       <c r="G10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -5289,10 +5349,14 @@
       <c r="G11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5314,10 +5378,14 @@
       <c r="G12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5339,10 +5407,14 @@
       <c r="G13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -5364,8 +5436,12 @@
       <c r="G14" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -5387,8 +5463,12 @@
       <c r="G15" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -5410,9 +5490,13 @@
       <c r="G16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -5434,9 +5518,13 @@
       <c r="G17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -5458,8 +5546,12 @@
       <c r="G18" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -5481,9 +5573,13 @@
       <c r="G19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5505,9 +5601,13 @@
       <c r="G20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -5529,9 +5629,13 @@
       <c r="G21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -5553,8 +5657,12 @@
       <c r="G22" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -5576,8 +5684,12 @@
       <c r="G23" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>63</v>
       </c>
@@ -5597,7 +5709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -5616,8 +5728,12 @@
       <c r="G27" s="2">
         <v>10</v>
       </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -5636,8 +5752,12 @@
       <c r="G28" s="2">
         <v>10</v>
       </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
@@ -5656,8 +5776,12 @@
       <c r="G29" s="2">
         <v>22</v>
       </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -5676,8 +5800,12 @@
       <c r="G30" s="2">
         <v>22</v>
       </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -5696,8 +5824,12 @@
       <c r="G31" s="2">
         <v>48</v>
       </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
@@ -5716,8 +5848,12 @@
       <c r="G32" s="2">
         <v>48</v>
       </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
@@ -5736,8 +5872,12 @@
       <c r="G33" s="2">
         <v>80</v>
       </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
@@ -5756,8 +5896,12 @@
       <c r="G34" s="2">
         <v>80</v>
       </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
@@ -5776,8 +5920,12 @@
       <c r="G35" s="2">
         <v>11</v>
       </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -5796,8 +5944,12 @@
       <c r="G36" s="2">
         <v>100</v>
       </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
@@ -5816,8 +5968,12 @@
       <c r="G37" s="2">
         <v>100</v>
       </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -5836,8 +5992,12 @@
       <c r="G38" s="2">
         <v>10</v>
       </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
@@ -5856,8 +6016,12 @@
       <c r="G39" s="2">
         <v>10</v>
       </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
@@ -5876,8 +6040,12 @@
       <c r="G40" s="2">
         <v>100</v>
       </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
@@ -5896,8 +6064,12 @@
       <c r="G41" s="2">
         <v>100</v>
       </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -5916,8 +6088,12 @@
       <c r="G42" s="2">
         <v>10</v>
       </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -5936,8 +6112,12 @@
       <c r="G43" s="2">
         <v>10</v>
       </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -5956,8 +6136,12 @@
       <c r="G45" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>7</v>
       </c>
@@ -5977,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>7</v>
       </c>
@@ -6017,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>7</v>
       </c>
@@ -6037,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -6057,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>7</v>
       </c>
@@ -6077,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>7</v>
       </c>
@@ -6097,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>7</v>
       </c>
@@ -6117,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>7</v>
       </c>
@@ -6137,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>7</v>
       </c>
@@ -6157,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>7</v>
       </c>
@@ -6177,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>7</v>
       </c>
@@ -6197,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>7</v>
       </c>
@@ -6217,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>7</v>
       </c>
@@ -6237,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>7</v>
       </c>
@@ -6257,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>7</v>
       </c>
@@ -6277,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>7</v>
       </c>

--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Desktop\Projekte\irsel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD6712-F6E3-481A-B689-7461049FC502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6857D4-8DD3-4A58-8D12-5AA2FEB82C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{8E931BA2-57EF-40BF-B250-A90852F58644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{8E931BA2-57EF-40BF-B250-A90852F58644}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>big</t>
   </si>
@@ -108,99 +109,12 @@
     <t>selection ratio (proof steps)</t>
   </si>
   <si>
-    <t>100.0%</t>
-  </si>
-  <si>
-    <t>0.02%</t>
-  </si>
-  <si>
-    <t>0.22%</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>1.09%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>0.79%</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>0.05%</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>100.0% (31642)</t>
-  </si>
-  <si>
-    <t>0.14% (51)</t>
-  </si>
-  <si>
-    <t>66.2%</t>
-  </si>
-  <si>
-    <t>56.34%</t>
-  </si>
-  <si>
-    <t>33.8%</t>
-  </si>
-  <si>
-    <t>39.44%</t>
-  </si>
-  <si>
-    <t>25.35%</t>
-  </si>
-  <si>
-    <t>46.48%</t>
-  </si>
-  <si>
-    <t>38.03%</t>
-  </si>
-  <si>
-    <t>28.17%</t>
-  </si>
-  <si>
-    <t>40.85%</t>
-  </si>
-  <si>
-    <t>50.7%</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>0.01% (212)</t>
-  </si>
-  <si>
     <t>83.33%</t>
   </si>
   <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>100.0% (15)</t>
-  </si>
-  <si>
     <t>selection time</t>
   </si>
   <si>
@@ -256,6 +170,123 @@
   </si>
   <si>
     <t>SET095+1</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>selector</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>BIO002</t>
+  </si>
+  <si>
+    <t>NLP218</t>
+  </si>
+  <si>
+    <t>NLP261</t>
+  </si>
+  <si>
+    <t>NUM006</t>
+  </si>
+  <si>
+    <t>SET020</t>
+  </si>
+  <si>
+    <t>SET084</t>
+  </si>
+  <si>
+    <t>SET093</t>
+  </si>
+  <si>
+    <t>SET095</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>2632</t>
+  </si>
+  <si>
+    <t>4674</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>3391</t>
+  </si>
+  <si>
+    <t>4434</t>
+  </si>
+  <si>
+    <t>4432</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>570</t>
   </si>
 </sst>
 </file>
@@ -265,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +312,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +356,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -310,20 +371,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -377,7 +628,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$4</c:f>
+              <c:f>Tabelle1!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -459,11 +710,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$3</c:f>
+              <c:f>Tabelle1!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -477,11 +728,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$4:$P$4</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$4:$V$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$4</c:f>
+              <c:f>Tabelle1!$T$4</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -502,7 +753,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$6</c:f>
+              <c:f>Tabelle1!$S$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -584,11 +835,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$3</c:f>
+              <c:f>Tabelle1!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -602,11 +853,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$6:$P$6</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$6:$V$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$6</c:f>
+              <c:f>Tabelle1!$T$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -627,7 +878,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$5</c:f>
+              <c:f>Tabelle1!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -709,11 +960,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$3</c:f>
+              <c:f>Tabelle1!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -727,11 +978,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$5:$P$5</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$5:$V$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$5</c:f>
+              <c:f>Tabelle1!$T$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -752,7 +1003,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$7</c:f>
+              <c:f>Tabelle1!$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -834,11 +1085,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$3</c:f>
+              <c:f>Tabelle1!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -852,11 +1103,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$7:$P$7</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$7:$V$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$7</c:f>
+              <c:f>Tabelle1!$T$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -877,7 +1128,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$8</c:f>
+              <c:f>Tabelle1!$S$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -959,11 +1210,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$3</c:f>
+              <c:f>Tabelle1!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,11 +1228,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$8:$P$8</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$8:$V$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$N$8</c:f>
+              <c:f>Tabelle1!$T$8</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1230,7 +1481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$7</c:f>
+              <c:f>Tabelle1!$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1312,11 +1563,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$3</c:f>
+              <c:f>Tabelle1!$U$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1330,11 +1581,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$7:$P$7</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$7:$V$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$7</c:f>
+              <c:f>Tabelle1!$U$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1355,7 +1606,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$5</c:f>
+              <c:f>Tabelle1!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1437,11 +1688,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$3</c:f>
+              <c:f>Tabelle1!$U$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1455,11 +1706,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$5:$P$5</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$5:$V$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$5</c:f>
+              <c:f>Tabelle1!$U$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1480,7 +1731,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$6</c:f>
+              <c:f>Tabelle1!$S$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1562,11 +1813,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$3</c:f>
+              <c:f>Tabelle1!$U$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1580,11 +1831,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$6:$P$6</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$6:$V$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$6</c:f>
+              <c:f>Tabelle1!$U$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1605,7 +1856,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$8</c:f>
+              <c:f>Tabelle1!$S$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,11 +1938,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$3</c:f>
+              <c:f>Tabelle1!$U$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1705,11 +1956,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$8:$P$8</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$8:$V$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$8</c:f>
+              <c:f>Tabelle1!$U$8</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1730,7 +1981,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$4</c:f>
+              <c:f>Tabelle1!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1812,11 +2063,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$3</c:f>
+              <c:f>Tabelle1!$U$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1830,11 +2081,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$4:$P$4</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$4:$V$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$O$4</c:f>
+              <c:f>Tabelle1!$U$4</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2083,7 +2334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$5</c:f>
+              <c:f>Tabelle1!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2165,11 +2416,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$3</c:f>
+              <c:f>Tabelle1!$V$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2183,11 +2434,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$5:$P$5</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$5:$V$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$5</c:f>
+              <c:f>Tabelle1!$V$5</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2208,7 +2459,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$7</c:f>
+              <c:f>Tabelle1!$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2290,11 +2541,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$3</c:f>
+              <c:f>Tabelle1!$V$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2308,11 +2559,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$7:$P$7</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$7:$V$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$7</c:f>
+              <c:f>Tabelle1!$V$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2333,7 +2584,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$6</c:f>
+              <c:f>Tabelle1!$S$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2415,11 +2666,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$3</c:f>
+              <c:f>Tabelle1!$V$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2433,11 +2684,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$6:$P$6</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$6:$V$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$6</c:f>
+              <c:f>Tabelle1!$V$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2458,7 +2709,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$8</c:f>
+              <c:f>Tabelle1!$S$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2540,11 +2791,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$3</c:f>
+              <c:f>Tabelle1!$V$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2558,11 +2809,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$8:$P$8</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$8:$V$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$8</c:f>
+              <c:f>Tabelle1!$V$8</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2583,7 +2834,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$4</c:f>
+              <c:f>Tabelle1!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2665,11 +2916,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$3:$P$3</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$3:$V$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$3</c:f>
+              <c:f>Tabelle1!$V$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2683,11 +2934,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Tabelle1!$N$4:$P$4</c15:sqref>
+                    <c15:sqref>Tabelle1!$T$4:$V$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Tabelle1!$P$4</c:f>
+              <c:f>Tabelle1!$V$4</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4533,13 +4784,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4569,13 +4820,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4607,13 +4858,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -4943,1547 +5194,2532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05959AFF-5A0D-4D90-9A94-F62A5087BB18}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>58</v>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="44"/>
+      <c r="O3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="17">
         <v>10006</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="18"/>
+      <c r="D4" s="21">
         <v>9161</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="21">
         <v>71</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="17">
         <v>1026860</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="18"/>
+      <c r="H4" s="21">
         <v>18</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="18"/>
+      <c r="K4" s="19">
         <v>43</v>
       </c>
-      <c r="I4" s="4">
+      <c r="L4" s="18"/>
+      <c r="M4" s="17">
         <v>43</v>
       </c>
-      <c r="J4" s="4">
+      <c r="N4" s="18"/>
+      <c r="O4" s="17">
         <v>47</v>
       </c>
-      <c r="K4" s="4">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19">
         <v>43</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="7">
+      <c r="T4" s="5">
         <v>8.6805555555555555E-6</v>
       </c>
-      <c r="O4" s="7">
+      <c r="U4" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="P4" s="7">
+      <c r="V4" s="5">
         <v>0.18167013888888889</v>
       </c>
-      <c r="Q4" s="7">
-        <f>N4/(24*60*60)</f>
+      <c r="W4" s="5">
+        <f>T4/(24*60*60)</f>
         <v>1.0046939300411523E-10</v>
       </c>
-      <c r="R4" s="7">
-        <f t="shared" ref="R4:S4" si="0">O4/(24*60*60)</f>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4:Y4" si="0">U4/(24*60*60)</f>
         <v>8.0375514403292187E-9</v>
       </c>
-      <c r="S4" s="7">
+      <c r="Y4" s="5">
         <f t="shared" si="0"/>
         <v>2.1026636445473252E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="M5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="B5" s="23">
+        <v>10006</v>
+      </c>
+      <c r="C5" s="24">
+        <v>31642</v>
+      </c>
+      <c r="D5" s="25">
+        <v>9161</v>
+      </c>
+      <c r="E5" s="25">
+        <v>71</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1026860</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25">
+        <v>18</v>
+      </c>
+      <c r="I5" s="32">
+        <v>3</v>
+      </c>
+      <c r="J5" s="31">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8">
+        <v>43</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="23">
+        <v>43</v>
+      </c>
+      <c r="N5" s="24">
+        <v>56744</v>
+      </c>
+      <c r="O5" s="23">
+        <v>47</v>
+      </c>
+      <c r="P5" s="24">
+        <v>586</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>43</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="6">
         <v>4.1666666666666665E-5</v>
       </c>
-      <c r="O5" s="8">
+      <c r="U5" s="6">
         <v>1.3657407407407409E-4</v>
       </c>
-      <c r="P5" s="8">
+      <c r="V5" s="6">
         <v>3.9803240740740736E-3</v>
       </c>
-      <c r="Q5" s="7">
-        <f t="shared" ref="Q5:Q8" si="1">N5/(24*60*60)</f>
+      <c r="W5" s="5">
+        <f t="shared" ref="W5:W8" si="1">T5/(24*60*60)</f>
         <v>4.8225308641975311E-10</v>
       </c>
-      <c r="R5" s="7">
-        <f t="shared" ref="R5:R8" si="2">O5/(24*60*60)</f>
+      <c r="X5" s="5">
+        <f t="shared" ref="X5:X8" si="2">U5/(24*60*60)</f>
         <v>1.5807184499314131E-9</v>
       </c>
-      <c r="S5" s="7">
-        <f t="shared" ref="S5:S8" si="3">P5/(24*60*60)</f>
+      <c r="Y5" s="5">
+        <f t="shared" ref="Y5:Y8" si="3">V5/(24*60*60)</f>
         <v>4.6068565672153629E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="M6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>47</v>
+      </c>
+      <c r="F6" s="32">
+        <v>72</v>
+      </c>
+      <c r="G6" s="31">
+        <v>212</v>
+      </c>
+      <c r="H6" s="25">
+        <v>18</v>
+      </c>
+      <c r="I6" s="32">
+        <v>3</v>
+      </c>
+      <c r="J6" s="31">
+        <v>15</v>
+      </c>
+      <c r="K6" s="42">
+        <v>3</v>
+      </c>
+      <c r="L6" s="31">
+        <v>35</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="26">
+        <v>4</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="8">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="6">
         <v>4.0509259259259258E-5</v>
       </c>
-      <c r="O6" s="8">
+      <c r="U6" s="6">
         <v>4.224537037037037E-4</v>
       </c>
-      <c r="P6" s="8">
+      <c r="V6" s="6">
         <v>5.7431712962962969E-2</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="W6" s="5">
         <f t="shared" si="1"/>
         <v>4.688571673525377E-10</v>
       </c>
-      <c r="R6" s="7">
+      <c r="X6" s="5">
         <f t="shared" si="2"/>
         <v>4.8895104595336078E-9</v>
       </c>
-      <c r="S6" s="7">
+      <c r="Y6" s="5">
         <f t="shared" si="3"/>
         <v>6.6471890003429363E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="32">
+        <v>14</v>
+      </c>
+      <c r="C7" s="31">
+        <v>51</v>
+      </c>
+      <c r="D7" s="25">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25">
         <v>40</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="M7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="F7" s="26">
+        <v>11</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25">
+        <v>15</v>
+      </c>
+      <c r="I7" s="32">
+        <v>3</v>
+      </c>
+      <c r="J7" s="31">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7">
+        <v>26</v>
+      </c>
+      <c r="L7" s="24">
+        <v>2632</v>
+      </c>
+      <c r="M7" s="23">
+        <v>37</v>
+      </c>
+      <c r="N7" s="24">
+        <v>4434</v>
+      </c>
+      <c r="O7" s="23">
+        <v>32</v>
+      </c>
+      <c r="P7" s="24">
+        <v>287</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>36</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="6">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="O7" s="8">
+      <c r="U7" s="6">
         <v>1.244212962962963E-4</v>
       </c>
-      <c r="P7" s="8">
+      <c r="V7" s="6">
         <v>4.2581018518518515E-3</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="W7" s="5">
         <f t="shared" si="1"/>
         <v>5.3583676268861453E-10</v>
       </c>
-      <c r="R7" s="7">
+      <c r="X7" s="5">
         <f t="shared" si="2"/>
         <v>1.4400612997256516E-9</v>
       </c>
-      <c r="S7" s="7">
+      <c r="Y7" s="5">
         <f t="shared" si="3"/>
         <v>4.9283586248285315E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="M8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="22">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13">
+        <v>67</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="22">
+        <v>15</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="3">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9">
+        <v>148</v>
+      </c>
+      <c r="M8" s="13">
+        <v>6</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="13">
+        <v>10</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="4">
+        <v>18</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="6">
         <v>4.8611111111111115E-5</v>
       </c>
-      <c r="O8" s="8">
+      <c r="U8" s="6">
         <v>4.5601851851851852E-4</v>
       </c>
-      <c r="P8" s="8">
+      <c r="V8" s="6">
         <v>5.4395833333333338E-2</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="W8" s="5">
         <f t="shared" si="1"/>
         <v>5.6262860082304535E-10</v>
       </c>
-      <c r="R8" s="7">
+      <c r="X8" s="5">
         <f t="shared" si="2"/>
         <v>5.2779921124828529E-9</v>
       </c>
-      <c r="S8" s="7">
+      <c r="Y8" s="5">
         <f t="shared" si="3"/>
         <v>6.2958140432098776E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="22">
+        <v>100</v>
+      </c>
+      <c r="E9" s="22">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="13">
+        <v>100</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="22">
+        <v>15</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="4">
+        <v>37</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="12">
+        <v>40</v>
+      </c>
+      <c r="N9" s="9">
+        <v>4674</v>
+      </c>
+      <c r="O9" s="12">
         <v>44</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="P9" s="9">
+        <v>512</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="22">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="22">
+        <v>15</v>
+      </c>
+      <c r="I10" s="30">
+        <v>3</v>
+      </c>
+      <c r="J10" s="29">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3">
+        <v>26</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M10" s="30">
+        <v>25</v>
+      </c>
+      <c r="N10" s="29">
+        <v>262</v>
+      </c>
+      <c r="O10" s="30">
+        <v>29</v>
+      </c>
+      <c r="P10" s="29">
+        <v>220</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>34</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
+      <c r="B11" s="13">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="22">
+        <v>72</v>
+      </c>
+      <c r="E11" s="22">
+        <v>18</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="22">
+        <v>15</v>
+      </c>
+      <c r="I11" s="30">
+        <v>3</v>
+      </c>
+      <c r="J11" s="29">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3">
+        <v>26</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M11" s="12">
+        <v>35</v>
+      </c>
+      <c r="N11" s="9">
+        <v>3391</v>
+      </c>
+      <c r="O11" s="12">
+        <v>32</v>
+      </c>
+      <c r="P11" s="9">
+        <v>287</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>34</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="22">
+        <v>100</v>
+      </c>
+      <c r="E12" s="22">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13">
+        <v>100</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="22">
+        <v>15</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9">
+        <v>148</v>
+      </c>
+      <c r="M12" s="13">
+        <v>6</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="13">
+        <v>10</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="4">
+        <v>18</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="22">
+        <v>100</v>
+      </c>
+      <c r="E13" s="22">
+        <v>33</v>
+      </c>
+      <c r="F13" s="13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="22">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="4">
+        <v>40</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="12">
+        <v>40</v>
+      </c>
+      <c r="N13" s="9">
+        <v>4674</v>
+      </c>
+      <c r="O13" s="12">
+        <v>45</v>
+      </c>
+      <c r="P13" s="9">
+        <v>570</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>40</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="13">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="22">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22">
+        <v>18</v>
+      </c>
+      <c r="F14" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="22">
+        <v>15</v>
+      </c>
+      <c r="I14" s="30">
+        <v>3</v>
+      </c>
+      <c r="J14" s="29">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3">
+        <v>26</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M14" s="30">
+        <v>25</v>
+      </c>
+      <c r="N14" s="29">
+        <v>262</v>
+      </c>
+      <c r="O14" s="30">
+        <v>29</v>
+      </c>
+      <c r="P14" s="29">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="4">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="30">
+        <v>14</v>
+      </c>
+      <c r="C15" s="29">
+        <v>51</v>
+      </c>
+      <c r="D15" s="22">
+        <v>21</v>
+      </c>
+      <c r="E15" s="22">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="F15" s="13">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="22">
+        <v>15</v>
+      </c>
+      <c r="I15" s="30">
+        <v>3</v>
+      </c>
+      <c r="J15" s="29">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3">
+        <v>26</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M15" s="12">
+        <v>37</v>
+      </c>
+      <c r="N15" s="9">
+        <v>4434</v>
+      </c>
+      <c r="O15" s="12">
+        <v>32</v>
+      </c>
+      <c r="P15" s="9">
+        <v>287</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="M16" s="1"/>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="22">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22">
+        <v>27</v>
+      </c>
+      <c r="F16" s="13">
+        <v>67</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="22">
+        <v>15</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="3">
+        <v>10</v>
+      </c>
+      <c r="L16" s="9">
+        <v>148</v>
+      </c>
+      <c r="M16" s="13">
+        <v>6</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="13">
+        <v>10</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="4">
+        <v>18</v>
+      </c>
+      <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="22">
+        <v>100</v>
+      </c>
+      <c r="E17" s="22">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="13">
+        <v>100</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="22">
+        <v>15</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="4">
+        <v>37</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="12">
+        <v>40</v>
+      </c>
+      <c r="N17" s="9">
+        <v>4674</v>
+      </c>
+      <c r="O17" s="12">
         <v>44</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="M17" s="1"/>
+      <c r="P17" s="9">
+        <v>512</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>39</v>
+      </c>
+      <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="13">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="22">
+        <v>18</v>
+      </c>
+      <c r="E18" s="22">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13">
+        <v>31</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="22">
+        <v>15</v>
+      </c>
+      <c r="I18" s="30">
+        <v>3</v>
+      </c>
+      <c r="J18" s="29">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3">
+        <v>26</v>
+      </c>
+      <c r="L18" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M18" s="30">
+        <v>25</v>
+      </c>
+      <c r="N18" s="29">
+        <v>262</v>
+      </c>
+      <c r="O18" s="30">
+        <v>29</v>
+      </c>
+      <c r="P18" s="29">
+        <v>220</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="M19" s="1"/>
+      <c r="B19" s="13">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="22">
+        <v>72</v>
+      </c>
+      <c r="E19" s="22">
+        <v>20</v>
+      </c>
+      <c r="F19" s="13">
+        <v>43</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="22">
+        <v>15</v>
+      </c>
+      <c r="I19" s="30">
+        <v>3</v>
+      </c>
+      <c r="J19" s="29">
+        <v>15</v>
+      </c>
+      <c r="K19" s="3">
+        <v>26</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M19" s="12">
+        <v>35</v>
+      </c>
+      <c r="N19" s="9">
+        <v>3391</v>
+      </c>
+      <c r="O19" s="12">
+        <v>32</v>
+      </c>
+      <c r="P19" s="9">
+        <v>287</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>34</v>
+      </c>
+      <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="M20" s="1"/>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="22">
+        <v>100</v>
+      </c>
+      <c r="E20" s="22">
+        <v>27</v>
+      </c>
+      <c r="F20" s="13">
+        <v>100</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="22">
+        <v>15</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="3">
+        <v>10</v>
+      </c>
+      <c r="L20" s="9">
+        <v>148</v>
+      </c>
+      <c r="M20" s="13">
+        <v>6</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="13">
+        <v>10</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="4">
+        <v>18</v>
+      </c>
+      <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="M21" s="1"/>
+      <c r="B21" s="13">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="22">
+        <v>100</v>
+      </c>
+      <c r="E21" s="22">
+        <v>29</v>
+      </c>
+      <c r="F21" s="13">
+        <v>100</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="22">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="4">
+        <v>38</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="12">
+        <v>40</v>
+      </c>
+      <c r="N21" s="9">
+        <v>4674</v>
+      </c>
+      <c r="O21" s="12">
+        <v>44</v>
+      </c>
+      <c r="P21" s="9">
+        <v>512</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>40</v>
+      </c>
+      <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="13">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="22">
+        <v>25</v>
+      </c>
+      <c r="E22" s="22">
+        <v>20</v>
+      </c>
+      <c r="F22" s="13">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="22">
+        <v>15</v>
+      </c>
+      <c r="I22" s="30">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3">
+        <v>26</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M22" s="30">
+        <v>25</v>
+      </c>
+      <c r="N22" s="29">
+        <v>262</v>
+      </c>
+      <c r="O22" s="30">
+        <v>29</v>
+      </c>
+      <c r="P22" s="29">
+        <v>220</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="13">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="22">
+        <v>25</v>
+      </c>
+      <c r="E23" s="22">
+        <v>36</v>
+      </c>
+      <c r="F23" s="13">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="22">
+        <v>15</v>
+      </c>
+      <c r="I23" s="30">
+        <v>3</v>
+      </c>
+      <c r="J23" s="29">
+        <v>15</v>
+      </c>
+      <c r="K23" s="3">
+        <v>26</v>
+      </c>
+      <c r="L23" s="9">
+        <v>2632</v>
+      </c>
+      <c r="M23" s="12">
+        <v>37</v>
+      </c>
+      <c r="N23" s="9">
+        <v>4432</v>
+      </c>
+      <c r="O23" s="12">
+        <v>32</v>
+      </c>
+      <c r="P23" s="9">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="I26" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2">
         <v>21</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
         <v>51</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I27" s="2">
         <v>10</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2">
         <v>21</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
         <v>51</v>
       </c>
-      <c r="G28" s="2">
+      <c r="I28" s="2">
         <v>10</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="2">
         <v>21</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
         <v>51</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I29" s="2">
         <v>22</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2">
         <v>21</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
         <v>51</v>
       </c>
-      <c r="G30" s="2">
+      <c r="I30" s="2">
         <v>22</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="2">
         <v>19</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
         <v>53</v>
       </c>
-      <c r="G31" s="2">
+      <c r="I31" s="2">
         <v>48</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="2">
         <v>19</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
         <v>53</v>
       </c>
-      <c r="G32" s="2">
+      <c r="I32" s="2">
         <v>48</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="2">
         <v>20</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
         <v>52</v>
       </c>
-      <c r="G33" s="2">
+      <c r="I33" s="2">
         <v>80</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="2">
         <v>20</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
         <v>52</v>
       </c>
-      <c r="G34" s="2">
+      <c r="I34" s="2">
         <v>80</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
         <v>72</v>
       </c>
-      <c r="G35" s="2">
+      <c r="I35" s="2">
         <v>11</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
         <v>72</v>
       </c>
-      <c r="G36" s="2">
+      <c r="I36" s="2">
         <v>100</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="E37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
         <v>72</v>
       </c>
-      <c r="G37" s="2">
+      <c r="I37" s="2">
         <v>100</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
         <v>72</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>10</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="E39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
         <v>72</v>
       </c>
-      <c r="G39" s="2">
+      <c r="I39" s="2">
         <v>10</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="E40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
         <v>72</v>
       </c>
-      <c r="G40" s="2">
+      <c r="I40" s="2">
         <v>100</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="2">
         <v>0</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
         <v>72</v>
       </c>
-      <c r="G41" s="2">
+      <c r="I41" s="2">
         <v>100</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2">
         <v>0</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2">
         <v>72</v>
       </c>
-      <c r="G42" s="2">
+      <c r="I42" s="2">
         <v>10</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2">
         <v>72</v>
       </c>
-      <c r="G43" s="2">
+      <c r="I43" s="2">
         <v>10</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46">
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46">
         <v>15</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>3</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47">
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47">
         <v>15</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>3</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48">
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48">
         <v>15</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>11</v>
       </c>
-      <c r="D49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49">
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49">
         <v>15</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>3</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50">
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50">
         <v>15</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>13</v>
       </c>
-      <c r="D51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51">
         <v>15</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52">
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52">
         <v>15</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>3</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53">
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53">
         <v>15</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>3</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="D54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54">
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54">
         <v>15</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="D55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55">
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55">
         <v>15</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="D56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56">
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56">
         <v>15</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>3</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57">
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57">
         <v>15</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>20</v>
       </c>
-      <c r="D58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58">
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58">
         <v>15</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>3</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>21</v>
       </c>
-      <c r="D59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59">
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59">
         <v>15</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>3</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>22</v>
       </c>
-      <c r="D60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60">
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60">
         <v>15</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>3</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>23</v>
       </c>
-      <c r="D61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61">
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61">
         <v>15</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>24</v>
       </c>
-      <c r="D62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62">
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62">
         <v>15</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>3</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641F6A50-FC62-4DA5-BB20-86BEF32F81F6}">
+  <dimension ref="B3:T19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="33"/>
+    <col min="2" max="3" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="33" customWidth="1"/>
+    <col min="7" max="8" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="33" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="33" customWidth="1"/>
+    <col min="12" max="15" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="33" customWidth="1"/>
+    <col min="17" max="20" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="34">
+        <v>31642</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="L3" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="Q3" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="45"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="40">
+        <v>212</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="L9" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="40">
+        <v>15</v>
+      </c>
+      <c r="O9" s="40">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="45"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="34">
+        <v>56744</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="G15" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="34">
+        <v>586</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="L15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="45"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>